--- a/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>IRNS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42277</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42185</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +746,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +965,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -948,17 +975,17 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -966,10 +993,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,16 +1007,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -995,10 +1025,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1025,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1037,21 +1071,24 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1068,8 +1105,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1120,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1097,13 +1137,16 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1126,8 +1169,11 @@
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,13 +1233,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1213,13 +1265,16 @@
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1242,8 +1297,11 @@
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1373,11 +1443,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1385,15 +1455,18 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1416,8 +1489,11 @@
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,13 +1521,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1474,42 +1553,48 @@
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42277</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42185</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1620,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1561,39 +1648,45 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E42" s="3">
         <v>4100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3800</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3000</v>
       </c>
       <c r="G42" s="3">
         <v>3000</v>
       </c>
       <c r="H42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="3">
         <v>3100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1714,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1746,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,37 +1778,43 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>5900</v>
       </c>
       <c r="E46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3000</v>
       </c>
       <c r="G46" s="3">
         <v>3000</v>
       </c>
       <c r="H46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1874,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3000</v>
       </c>
       <c r="G54" s="3">
         <v>3000</v>
       </c>
       <c r="H54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2096,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -1995,19 +2126,22 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -2022,21 +2156,24 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2044,8 +2181,8 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2053,19 +2190,22 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -2082,25 +2222,28 @@
       <c r="K60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="E61" s="3">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="G61" s="3">
         <v>1300</v>
       </c>
       <c r="H61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="3">
         <v>1200</v>
@@ -2111,19 +2254,22 @@
       <c r="K61" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2382,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2236,28 +2394,31 @@
         <v>3500</v>
       </c>
       <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1900</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I66" s="3">
         <v>1800</v>
       </c>
       <c r="J66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-22600</v>
+        <v>-22500</v>
       </c>
       <c r="E72" s="3">
         <v>-22600</v>
       </c>
       <c r="F72" s="3">
-        <v>-22000</v>
+        <v>-22600</v>
       </c>
       <c r="G72" s="3">
         <v>-22000</v>
       </c>
       <c r="H72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-21900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-21800</v>
       </c>
       <c r="J72" s="3">
         <v>-21800</v>
       </c>
       <c r="K72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1100</v>
       </c>
       <c r="G76" s="3">
         <v>1100</v>
       </c>
       <c r="H76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I76" s="3">
         <v>1200</v>
       </c>
       <c r="J76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,47 +2748,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42277</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42185</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -2622,8 +2817,11 @@
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,17 +3023,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -2836,10 +3053,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,25 +3339,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3125,8 +3371,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3163,11 +3415,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3181,6 +3433,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>IRNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,63 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42277</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -978,17 +1004,17 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -996,10 +1022,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,16 +1039,16 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1028,10 +1057,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1074,10 +1107,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1088,10 +1124,10 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1108,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1123,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1140,13 +1179,16 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1172,8 +1214,11 @@
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,13 +1284,16 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1268,13 +1319,16 @@
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1300,8 +1354,11 @@
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1446,11 +1515,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1458,15 +1527,18 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1492,8 +1564,11 @@
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,13 +1599,16 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1556,45 +1634,51 @@
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42277</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1630,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1651,42 +1737,48 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E42" s="3">
         <v>5900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3000</v>
       </c>
       <c r="H42" s="3">
         <v>3000</v>
       </c>
       <c r="I42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J42" s="3">
         <v>3100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1781,40 +1879,46 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3000</v>
       </c>
       <c r="H46" s="3">
         <v>3000</v>
       </c>
       <c r="I46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1877,8 +1984,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3000</v>
       </c>
       <c r="H54" s="3">
         <v>3000</v>
       </c>
       <c r="I54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2106,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2129,13 +2259,16 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -2144,7 +2277,7 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -2159,10 +2292,13 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2173,19 +2309,19 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2193,8 +2329,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2202,13 +2341,13 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
@@ -2225,28 +2364,31 @@
       <c r="L60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2800</v>
       </c>
       <c r="F61" s="3">
         <v>2800</v>
       </c>
       <c r="G61" s="3">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="H61" s="3">
         <v>1300</v>
       </c>
       <c r="I61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J61" s="3">
         <v>1200</v>
@@ -2257,22 +2399,25 @@
       <c r="L61" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2289,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="E66" s="3">
         <v>3500</v>
       </c>
       <c r="F66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G66" s="3">
         <v>3400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1900</v>
       </c>
       <c r="I66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
       </c>
       <c r="K66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2568,31 +2741,34 @@
         <v>-22500</v>
       </c>
       <c r="E72" s="3">
-        <v>-22600</v>
+        <v>-22500</v>
       </c>
       <c r="F72" s="3">
         <v>-22600</v>
       </c>
       <c r="G72" s="3">
-        <v>-22000</v>
+        <v>-22600</v>
       </c>
       <c r="H72" s="3">
         <v>-22000</v>
       </c>
       <c r="I72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-21900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-21800</v>
       </c>
       <c r="K72" s="3">
         <v>-21800</v>
       </c>
       <c r="L72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1100</v>
       </c>
       <c r="H76" s="3">
         <v>1100</v>
       </c>
       <c r="I76" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
       </c>
       <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,50 +2939,56 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42277</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -2820,8 +3014,11 @@
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2866,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,20 +3239,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3056,10 +3272,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,28 +3584,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3374,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3418,11 +3669,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3436,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>IRNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,71 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +985,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1044,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1007,28 +1061,34 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1042,28 +1102,34 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1098,42 +1166,48 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1147,8 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1165,10 +1245,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1182,20 +1262,26 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
@@ -1217,8 +1303,14 @@
       <c r="M23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,20 +1385,26 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
@@ -1322,20 +1426,26 @@
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
@@ -1357,8 +1467,14 @@
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1518,34 +1658,40 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
@@ -1567,8 +1713,14 @@
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,20 +1754,26 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
@@ -1637,48 +1795,60 @@
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1879,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1719,17 +1893,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1740,45 +1914,57 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F42" s="3">
         <v>5600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>4100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>3100</v>
       </c>
       <c r="K42" s="3">
         <v>3000</v>
       </c>
       <c r="L42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N42" s="3">
         <v>3500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,43 +2080,55 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F46" s="3">
         <v>5600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3100</v>
       </c>
       <c r="K46" s="3">
         <v>3000</v>
       </c>
       <c r="L46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2162,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3100</v>
       </c>
       <c r="K54" s="3">
         <v>3000</v>
       </c>
       <c r="L54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2239,17 +2501,17 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2262,8 +2524,14 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,19 +2539,19 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -2295,15 +2563,21 @@
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2312,48 +2586,54 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -2367,34 +2647,40 @@
       <c r="M60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G61" s="3">
         <v>2900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1200</v>
       </c>
       <c r="L61" s="3">
         <v>1200</v>
@@ -2402,28 +2688,34 @@
       <c r="M61" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,60 +3320,72 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
@@ -3017,8 +3407,14 @@
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3251,17 +3685,17 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3275,10 +3709,16 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,34 +4073,40 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3622,8 +4114,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3672,14 +4176,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IRNS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>IRNS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1108,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1067,28 +1120,34 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1108,28 +1167,34 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,22 +1239,28 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,8 +1270,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1206,14 +1279,14 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1227,16 +1300,22 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1251,10 +1330,10 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1268,26 +1347,32 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
@@ -1309,8 +1394,14 @@
       <c r="O23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,26 +1488,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
@@ -1432,26 +1535,32 @@
       <c r="O26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
@@ -1473,8 +1582,14 @@
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1664,40 +1803,46 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
@@ -1719,8 +1864,14 @@
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,26 +1911,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
@@ -1801,54 +1958,66 @@
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1899,17 +2072,17 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -1920,51 +2093,63 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F42" s="3">
         <v>5400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>5900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>4100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3100</v>
       </c>
       <c r="M42" s="3">
         <v>3000</v>
       </c>
       <c r="N42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P42" s="3">
         <v>3500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,49 +2283,61 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F46" s="3">
         <v>5400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>3100</v>
       </c>
       <c r="M46" s="3">
         <v>3000</v>
       </c>
       <c r="N46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3100</v>
       </c>
       <c r="M54" s="3">
         <v>3000</v>
       </c>
       <c r="N54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2507,17 +2768,17 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2530,8 +2791,14 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2545,19 +2812,19 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -2569,10 +2836,16 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2580,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2592,28 +2865,34 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2621,25 +2900,25 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -2653,40 +2932,46 @@
       <c r="O60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1200</v>
       </c>
       <c r="N61" s="3">
         <v>1200</v>
@@ -2694,13 +2979,19 @@
       <c r="O61" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2708,20 +2999,20 @@
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,8 +3421,14 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3092,37 +3439,43 @@
         <v>-21600</v>
       </c>
       <c r="F72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-22500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,72 +3703,84 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
@@ -3413,8 +3802,14 @@
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,32 +4103,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-1400</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3715,10 +4148,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,20 +4310,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3878,28 +4337,34 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,40 +4564,46 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4120,8 +4611,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4182,14 +4685,14 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4200,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>
